--- a/PhanMem/Data/Cat-Luong-TH.xlsx
+++ b/PhanMem/Data/Cat-Luong-TH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>BẢNG TỔNG HỢP  LƯƠNG CÔNG NHÂN SẢN PHẨM CẮT</t>
   </si>
@@ -96,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -272,10 +272,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,12 +291,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -325,7 +315,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -367,7 +357,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -375,15 +365,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -393,6 +383,12 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -697,45 +693,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -747,10 +741,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -771,26 +764,23 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -800,126 +790,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PhanMem/Data/Cat-Luong-TH.xlsx
+++ b/PhanMem/Data/Cat-Luong-TH.xlsx
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -323,71 +323,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,25 +689,25 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -724,10 +717,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -791,48 +784,48 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="13"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -852,7 +845,7 @@
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -879,41 +872,43 @@
       <c r="I4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
